--- a/заказы/статистика филиалы/2023/11,23/22,11,23 КИ/дв 22,11,23 днрсч от филиала.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/22,11,23 КИ/дв 22,11,23 днрсч от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\22,11,23 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\22,11,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF769DC4-4F69-4897-A7F3-9AB8F335F99F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7171EC8E-1352-4EA6-A0BB-E5FB3A3F4166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="411" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,10 +483,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -8176,8 +8180,8 @@
   <dimension ref="A1:AE110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T31" sqref="T31"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -8378,7 +8382,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18">
-        <f t="shared" ref="J5:Q5" si="1">SUM(J6:J265)</f>
+        <f t="shared" ref="J5:S5" si="1">SUM(J6:J265)</f>
         <v>30205.500999999993</v>
       </c>
       <c r="K5" s="18">
@@ -8409,8 +8413,14 @@
         <f t="shared" si="1"/>
         <v>14067</v>
       </c>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
+      <c r="R5" s="18">
+        <f t="shared" si="1"/>
+        <v>13260</v>
+      </c>
+      <c r="S5" s="18">
+        <f t="shared" si="1"/>
+        <v>7930</v>
+      </c>
       <c r="T5" s="18">
         <f t="shared" ref="T5" si="2">SUM(T6:T78)</f>
         <v>0</v>
@@ -16920,7 +16930,7 @@
         <v>-2.4</v>
       </c>
       <c r="L102" s="2">
-        <f t="shared" ref="L102:L133" si="23">F102-M102</f>
+        <f t="shared" ref="L102:L110" si="23">F102-M102</f>
         <v>0</v>
       </c>
       <c r="P102" s="2">

--- a/заказы/статистика филиалы/2023/11,23/22,11,23 КИ/дв 22,11,23 днрсч от филиала.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/22,11,23 КИ/дв 22,11,23 днрсч от филиала.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\22,11,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7171EC8E-1352-4EA6-A0BB-E5FB3A3F4166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D4A888-3D13-456B-AA86-D853BE4A4388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="411" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8181,7 +8181,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S12" sqref="S12"/>
+      <selection pane="bottomLeft" activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
